--- a/output/ValueSet-reproductive-goal-vs.xlsx
+++ b/output/ValueSet-reproductive-goal-vs.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/ValueSet/reproductive-goal-vs</t>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/ValueSet/reproductive-goal-vs</t>
   </si>
   <si>
     <t>Version</t>
